--- a/natmiOut/YoungD0/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.4838729859323</v>
+        <v>25.01567066666667</v>
       </c>
       <c r="N2">
-        <v>23.4838729859323</v>
+        <v>75.047012</v>
       </c>
       <c r="O2">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="P2">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="Q2">
-        <v>2331.395934294227</v>
+        <v>2621.512229394871</v>
       </c>
       <c r="R2">
-        <v>2331.395934294227</v>
+        <v>23593.61006455384</v>
       </c>
       <c r="S2">
-        <v>0.1285311547770968</v>
+        <v>0.1367231876896852</v>
       </c>
       <c r="T2">
-        <v>0.1285311547770968</v>
+        <v>0.1367231876896852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H3">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.9722167161494</v>
+        <v>25.99788533333333</v>
       </c>
       <c r="N3">
-        <v>25.9722167161494</v>
+        <v>77.993656</v>
       </c>
       <c r="O3">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="P3">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="Q3">
-        <v>2578.429907746131</v>
+        <v>2724.443219927486</v>
       </c>
       <c r="R3">
-        <v>2578.429907746131</v>
+        <v>24519.98897934737</v>
       </c>
       <c r="S3">
-        <v>0.1421502751546743</v>
+        <v>0.1420914835076011</v>
       </c>
       <c r="T3">
-        <v>0.1421502751546743</v>
+        <v>0.1420914835076011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H4">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.2928383165359</v>
+        <v>19.83851733333333</v>
       </c>
       <c r="N4">
-        <v>19.2928383165359</v>
+        <v>59.515552</v>
       </c>
       <c r="O4">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="P4">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="Q4">
-        <v>1915.3248205316</v>
+        <v>2078.973476081717</v>
       </c>
       <c r="R4">
-        <v>1915.3248205316</v>
+        <v>18710.76128473546</v>
       </c>
       <c r="S4">
-        <v>0.1055929228214456</v>
+        <v>0.1084274479382499</v>
       </c>
       <c r="T4">
-        <v>0.1055929228214456</v>
+        <v>0.1084274479382499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.4838729859323</v>
+        <v>25.01567066666667</v>
       </c>
       <c r="N5">
-        <v>23.4838729859323</v>
+        <v>75.047012</v>
       </c>
       <c r="O5">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="P5">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="Q5">
-        <v>3201.335106941185</v>
+        <v>3419.002929685117</v>
       </c>
       <c r="R5">
-        <v>3201.335106941185</v>
+        <v>30771.02636716605</v>
       </c>
       <c r="S5">
-        <v>0.1764913852988141</v>
+        <v>0.1783157728677946</v>
       </c>
       <c r="T5">
-        <v>0.1764913852988141</v>
+        <v>0.1783157728677946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9722167161494</v>
+        <v>25.99788533333333</v>
       </c>
       <c r="N6">
-        <v>25.9722167161494</v>
+        <v>77.993656</v>
       </c>
       <c r="O6">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="P6">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="Q6">
-        <v>3540.547559097306</v>
+        <v>3553.246575104858</v>
       </c>
       <c r="R6">
-        <v>3540.547559097306</v>
+        <v>31979.21917594373</v>
       </c>
       <c r="S6">
-        <v>0.1951923564848154</v>
+        <v>0.1853171589086706</v>
       </c>
       <c r="T6">
-        <v>0.1951923564848154</v>
+        <v>0.1853171589086706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.2928383165359</v>
+        <v>19.83851733333333</v>
       </c>
       <c r="N7">
-        <v>19.2928383165359</v>
+        <v>59.515552</v>
       </c>
       <c r="O7">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="P7">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="Q7">
-        <v>2630.010844133957</v>
+        <v>2711.41836599473</v>
       </c>
       <c r="R7">
-        <v>2630.010844133957</v>
+        <v>24402.76529395257</v>
       </c>
       <c r="S7">
-        <v>0.1449939608714113</v>
+        <v>0.1414121811076691</v>
       </c>
       <c r="T7">
-        <v>0.1449939608714113</v>
+        <v>0.1414121811076691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H8">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.4838729859323</v>
+        <v>25.01567066666667</v>
       </c>
       <c r="N8">
-        <v>23.4838729859323</v>
+        <v>75.047012</v>
       </c>
       <c r="O8">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="P8">
-        <v>0.3415889332786795</v>
+        <v>0.3530689998156723</v>
       </c>
       <c r="Q8">
-        <v>663.2690773889287</v>
+        <v>729.1829183064035</v>
       </c>
       <c r="R8">
-        <v>663.2690773889287</v>
+        <v>6562.646264757632</v>
       </c>
       <c r="S8">
-        <v>0.03656639320276853</v>
+        <v>0.03803003925819253</v>
       </c>
       <c r="T8">
-        <v>0.03656639320276853</v>
+        <v>0.03803003925819253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H9">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.9722167161494</v>
+        <v>25.99788533333333</v>
       </c>
       <c r="N9">
-        <v>25.9722167161494</v>
+        <v>77.993656</v>
       </c>
       <c r="O9">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="P9">
-        <v>0.3777835882636014</v>
+        <v>0.3669318921836303</v>
       </c>
       <c r="Q9">
-        <v>733.5488583754932</v>
+        <v>757.813538152135</v>
       </c>
       <c r="R9">
-        <v>733.5488583754932</v>
+        <v>6820.321843369216</v>
       </c>
       <c r="S9">
-        <v>0.04044095662411169</v>
+        <v>0.03952324976735868</v>
       </c>
       <c r="T9">
-        <v>0.04044095662411169</v>
+        <v>0.03952324976735868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.2928383165359</v>
+        <v>19.83851733333333</v>
       </c>
       <c r="N10">
-        <v>19.2928383165359</v>
+        <v>59.515552</v>
       </c>
       <c r="O10">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="P10">
-        <v>0.2806274784577192</v>
+        <v>0.2799991080006974</v>
       </c>
       <c r="Q10">
-        <v>544.8991773242861</v>
+        <v>578.2738410954524</v>
       </c>
       <c r="R10">
-        <v>544.8991773242861</v>
+        <v>5204.464569859072</v>
       </c>
       <c r="S10">
-        <v>0.03004059476486236</v>
+        <v>0.03015947895477836</v>
       </c>
       <c r="T10">
-        <v>0.03004059476486236</v>
+        <v>0.03015947895477836</v>
       </c>
     </row>
   </sheetData>
